--- a/planilha/janeiro/Escala ASO1 - Vila Oeste - 1° Turno - Janeiro.xlsx
+++ b/planilha/janeiro/Escala ASO1 - Vila Oeste - 1° Turno - Janeiro.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Escala ASO1 - Vila Oeste - 1° Turno - Janeiro</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Jessica Santos</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>F</t>
@@ -88,9 +88,6 @@
     <t>Blenda Teles</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Leonardo Akio</t>
   </si>
   <si>
@@ -106,7 +103,7 @@
     <t>Tatiane Rodrigues</t>
   </si>
   <si>
-    <t>20/12/19</t>
+    <t>02/01/20</t>
   </si>
 </sst>
 </file>
@@ -165,10 +162,10 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -797,102 +794,102 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="4" t="n"/>
-      <c r="AJ4" s="4" t="n"/>
-      <c r="AK4" s="4" t="n"/>
+        <v>19</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="3" t="n"/>
+      <c r="AI4" s="3" t="n"/>
+      <c r="AJ4" s="3" t="n"/>
+      <c r="AK4" s="3" t="n"/>
       <c r="AM4">
         <f>COUNTIF(B4:AG4; "B1")</f>
         <v/>
@@ -950,76 +947,76 @@
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="W5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD5" s="5" t="s">
@@ -1029,9 +1026,9 @@
         <v>7</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AH5" s="5" t="n"/>
@@ -1084,105 +1081,105 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH6" s="4" t="n"/>
-      <c r="AI6" s="4" t="n"/>
-      <c r="AJ6" s="4" t="n"/>
-      <c r="AK6" s="4" t="n"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="3" t="n"/>
+      <c r="AI6" s="3" t="n"/>
+      <c r="AJ6" s="3" t="n"/>
+      <c r="AK6" s="3" t="n"/>
       <c r="AM6">
         <f>COUNTIF(B6:AG6; "B1")</f>
         <v/>
@@ -1226,69 +1223,83 @@
     </row>
     <row customHeight="1" ht="20" r="7" spans="1:48">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s"/>
-      <c r="F7" s="5" t="s"/>
-      <c r="G7" s="5" t="s"/>
+      <c r="C7" s="5" t="s"/>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H7" s="5" t="s"/>
-      <c r="I7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="5" t="s"/>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="L7" s="5" t="s"/>
-      <c r="M7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="5" t="s"/>
-      <c r="Q7" s="5" t="s"/>
+      <c r="M7" s="5" t="s"/>
+      <c r="N7" s="5" t="s"/>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="R7" s="5" t="s"/>
-      <c r="S7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="5" t="s"/>
+      <c r="S7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="W7" s="5" t="s"/>
-      <c r="X7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="5" t="s"/>
-      <c r="AA7" s="5" t="s"/>
-      <c r="AB7" s="5" t="s"/>
+      <c r="X7" s="5" t="s"/>
+      <c r="Y7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="AC7" s="5" t="s"/>
-      <c r="AD7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF7" s="5" t="s"/>
+      <c r="AD7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="AG7" s="5" t="s"/>
       <c r="AH7" s="5" t="n"/>
       <c r="AI7" s="5" t="n"/>
@@ -1337,88 +1348,88 @@
     </row>
     <row customHeight="1" ht="20" r="8" spans="1:48">
       <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s"/>
-      <c r="D8" s="4" t="s"/>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4" t="s"/>
-      <c r="J8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="4" t="s"/>
-      <c r="N8" s="4" t="s"/>
-      <c r="O8" s="4" t="s"/>
-      <c r="P8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="4" t="s"/>
-      <c r="T8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="4" t="s"/>
-      <c r="Y8" s="4" t="s"/>
-      <c r="Z8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD8" s="4" t="s"/>
-      <c r="AE8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH8" s="4" t="n"/>
-      <c r="AI8" s="4" t="n"/>
-      <c r="AJ8" s="4" t="n"/>
-      <c r="AK8" s="4" t="n"/>
+      <c r="C8" s="3" t="s"/>
+      <c r="D8" s="3" t="s"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s"/>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3" t="s"/>
+      <c r="N8" s="3" t="s"/>
+      <c r="O8" s="3" t="s"/>
+      <c r="P8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="3" t="s"/>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="3" t="s"/>
+      <c r="Y8" s="3" t="s"/>
+      <c r="Z8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="3" t="s"/>
+      <c r="AE8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="3" t="n"/>
+      <c r="AI8" s="3" t="n"/>
+      <c r="AJ8" s="3" t="n"/>
+      <c r="AK8" s="3" t="n"/>
       <c r="AM8">
         <f>COUNTIF(B8:AG8; "B1")</f>
         <v/>
@@ -1462,66 +1473,66 @@
     </row>
     <row customHeight="1" ht="20" r="9" spans="1:48">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5" t="s"/>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="5" t="s"/>
       <c r="M9" s="5" t="s"/>
       <c r="N9" s="5" t="s"/>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" s="5" t="s"/>
-      <c r="S9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="3" t="s">
+      <c r="S9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W9" s="5" t="s"/>
       <c r="X9" s="5" t="s"/>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>7</v>
@@ -1530,14 +1541,14 @@
         <v>8</v>
       </c>
       <c r="AC9" s="5" t="s"/>
-      <c r="AD9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AD9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG9" s="5" t="s"/>
       <c r="AH9" s="5" t="n"/>
@@ -2139,7 +2150,7 @@
     <row r="29" spans="1:48"/>
     <row r="30" spans="1:48">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
